--- a/data_fin.xlsx
+++ b/data_fin.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">GHG_scope_3</t>
   </si>
   <si>
-    <t xml:space="preserve">GHG_direct</t>
+    <t xml:space="preserve">GHG_total</t>
   </si>
   <si>
     <t xml:space="preserve">Return</t>

--- a/data_fin.xlsx
+++ b/data_fin.xlsx
@@ -1059,7 +1059,9 @@
         <v>3716.79</v>
       </c>
       <c r="G22"/>
-      <c r="H22"/>
+      <c r="H22" t="n">
+        <v>1679</v>
+      </c>
       <c r="I22" t="n">
         <v>0.31719</v>
       </c>
@@ -1084,7 +1086,9 @@
         <v>3598.56</v>
       </c>
       <c r="G23"/>
-      <c r="H23"/>
+      <c r="H23" t="n">
+        <v>1679</v>
+      </c>
       <c r="I23" t="n">
         <v>0.235925</v>
       </c>
@@ -1109,7 +1113,9 @@
         <v>3783.78</v>
       </c>
       <c r="G24"/>
-      <c r="H24"/>
+      <c r="H24" t="n">
+        <v>1679</v>
+      </c>
       <c r="I24" t="n">
         <v>0.151997</v>
       </c>
@@ -1268,7 +1274,9 @@
         <v>175642.0622</v>
       </c>
       <c r="F30"/>
-      <c r="G30"/>
+      <c r="G30" t="n">
+        <v>175.28</v>
+      </c>
       <c r="H30" t="n">
         <v>1131</v>
       </c>
@@ -1293,7 +1301,9 @@
         <v>183143.0315</v>
       </c>
       <c r="F31"/>
-      <c r="G31"/>
+      <c r="G31" t="n">
+        <v>175.28</v>
+      </c>
       <c r="H31" t="n">
         <v>1116</v>
       </c>
@@ -1318,7 +1328,9 @@
         <v>183334.8721</v>
       </c>
       <c r="F32"/>
-      <c r="G32"/>
+      <c r="G32" t="n">
+        <v>175.28</v>
+      </c>
       <c r="H32" t="n">
         <v>1105</v>
       </c>
@@ -5683,7 +5695,9 @@
       <c r="F193" t="n">
         <v>6844.9</v>
       </c>
-      <c r="G193"/>
+      <c r="G193" t="n">
+        <v>2865</v>
+      </c>
       <c r="H193" t="n">
         <v>2164</v>
       </c>
@@ -5710,7 +5724,9 @@
       <c r="F194" t="n">
         <v>6634.71</v>
       </c>
-      <c r="G194"/>
+      <c r="G194" t="n">
+        <v>2865</v>
+      </c>
       <c r="H194" t="n">
         <v>1946</v>
       </c>
@@ -5737,7 +5753,9 @@
       <c r="F195" t="n">
         <v>6458.1</v>
       </c>
-      <c r="G195"/>
+      <c r="G195" t="n">
+        <v>2865</v>
+      </c>
       <c r="H195" t="n">
         <v>1821</v>
       </c>
@@ -13157,7 +13175,9 @@
       </c>
       <c r="F472"/>
       <c r="G472"/>
-      <c r="H472"/>
+      <c r="H472" t="n">
+        <v>18120</v>
+      </c>
       <c r="I472" t="n">
         <v>0.301591</v>
       </c>
@@ -13180,7 +13200,9 @@
       </c>
       <c r="F473"/>
       <c r="G473"/>
-      <c r="H473"/>
+      <c r="H473" t="n">
+        <v>18120</v>
+      </c>
       <c r="I473" t="n">
         <v>0.233382</v>
       </c>
@@ -13203,7 +13225,9 @@
       </c>
       <c r="F474"/>
       <c r="G474"/>
-      <c r="H474"/>
+      <c r="H474" t="n">
+        <v>18120</v>
+      </c>
       <c r="I474" t="n">
         <v>0.233382</v>
       </c>
